--- a/data/nzd0118/nzd0118.xlsx
+++ b/data/nzd0118/nzd0118.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9437,6 +9437,258 @@
         <v>401.0866666666667</v>
       </c>
       <c r="I286" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="n">
+        <v>396.930909090909</v>
+      </c>
+      <c r="G287" t="n">
+        <v>393.9015384615385</v>
+      </c>
+      <c r="H287" t="n">
+        <v>401.8633333333333</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>392.45</v>
+      </c>
+      <c r="C288" t="n">
+        <v>381.7733333333333</v>
+      </c>
+      <c r="D288" t="n">
+        <v>396.5982608695653</v>
+      </c>
+      <c r="E288" t="n">
+        <v>399.9518181818182</v>
+      </c>
+      <c r="F288" t="n">
+        <v>394.9418181818182</v>
+      </c>
+      <c r="G288" t="n">
+        <v>400.3523076923077</v>
+      </c>
+      <c r="H288" t="n">
+        <v>401.6033333333333</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>389.24</v>
+      </c>
+      <c r="C289" t="n">
+        <v>388.9233333333333</v>
+      </c>
+      <c r="D289" t="n">
+        <v>391.9847826086957</v>
+      </c>
+      <c r="E289" t="n">
+        <v>392.47</v>
+      </c>
+      <c r="F289" t="n">
+        <v>395.56</v>
+      </c>
+      <c r="G289" t="n">
+        <v>389.8784615384615</v>
+      </c>
+      <c r="H289" t="n">
+        <v>394.4133333333333</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>407.24</v>
+      </c>
+      <c r="C290" t="n">
+        <v>394.97</v>
+      </c>
+      <c r="D290" t="n">
+        <v>399.9095652173913</v>
+      </c>
+      <c r="E290" t="n">
+        <v>400.2127272727273</v>
+      </c>
+      <c r="F290" t="n">
+        <v>400.3727272727273</v>
+      </c>
+      <c r="G290" t="n">
+        <v>395.7761538461539</v>
+      </c>
+      <c r="H290" t="n">
+        <v>402.31</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>413.25</v>
+      </c>
+      <c r="C291" t="n">
+        <v>413.4</v>
+      </c>
+      <c r="D291" t="n">
+        <v>409.6126086956522</v>
+      </c>
+      <c r="E291" t="n">
+        <v>415.990909090909</v>
+      </c>
+      <c r="F291" t="n">
+        <v>413.7709090909091</v>
+      </c>
+      <c r="G291" t="n">
+        <v>402.52</v>
+      </c>
+      <c r="H291" t="n">
+        <v>412.34</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>404.39</v>
+      </c>
+      <c r="C292" t="n">
+        <v>393.6333333333333</v>
+      </c>
+      <c r="D292" t="n">
+        <v>400.2821739130435</v>
+      </c>
+      <c r="E292" t="n">
+        <v>398.79</v>
+      </c>
+      <c r="F292" t="n">
+        <v>399.46</v>
+      </c>
+      <c r="G292" t="n">
+        <v>396.1592307692308</v>
+      </c>
+      <c r="H292" t="n">
+        <v>402.1233333333333</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>402.28</v>
+      </c>
+      <c r="C293" t="n">
+        <v>390.42</v>
+      </c>
+      <c r="D293" t="n">
+        <v>394.3882608695652</v>
+      </c>
+      <c r="E293" t="n">
+        <v>396.4545454545454</v>
+      </c>
+      <c r="F293" t="n">
+        <v>393.5545454545455</v>
+      </c>
+      <c r="G293" t="n">
+        <v>393.7984615384616</v>
+      </c>
+      <c r="H293" t="n">
+        <v>400.36</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>416.31</v>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="n">
+        <v>403.5572727272727</v>
+      </c>
+      <c r="F294" t="n">
+        <v>394.4972727272727</v>
+      </c>
+      <c r="G294" t="n">
+        <v>397.9369230769231</v>
+      </c>
+      <c r="H294" t="n">
+        <v>400.9233333333333</v>
+      </c>
+      <c r="I294" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9453,7 +9705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12461,6 +12713,86 @@
       </c>
       <c r="B300" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -12629,28 +12961,28 @@
         <v>0.0418</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1420664611035815</v>
+        <v>0.2268865839815187</v>
       </c>
       <c r="J2" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007274357959819566</v>
+        <v>0.01818304778129842</v>
       </c>
       <c r="M2" t="n">
-        <v>9.041864115786717</v>
+        <v>9.21380980995737</v>
       </c>
       <c r="N2" t="n">
-        <v>129.396792243553</v>
+        <v>134.2799220027646</v>
       </c>
       <c r="O2" t="n">
-        <v>11.37527108439852</v>
+        <v>11.58792138404316</v>
       </c>
       <c r="P2" t="n">
-        <v>384.4239656327625</v>
+        <v>383.5291130545632</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -12706,28 +13038,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1496354901935391</v>
+        <v>0.1964991862529065</v>
       </c>
       <c r="J3" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K3" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01154147342234146</v>
+        <v>0.0196992577071422</v>
       </c>
       <c r="M3" t="n">
-        <v>7.345359397077512</v>
+        <v>7.415352311061955</v>
       </c>
       <c r="N3" t="n">
-        <v>89.57370268830064</v>
+        <v>91.87429622627882</v>
       </c>
       <c r="O3" t="n">
-        <v>9.464338470717362</v>
+        <v>9.585108044580343</v>
       </c>
       <c r="P3" t="n">
-        <v>379.9452339479103</v>
+        <v>379.44836728429</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -12777,28 +13109,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.06018304468181873</v>
+        <v>0.110500579034548</v>
       </c>
       <c r="J4" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K4" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001725712109793887</v>
+        <v>0.005868108043737608</v>
       </c>
       <c r="M4" t="n">
-        <v>7.513121703968713</v>
+        <v>7.591558354082882</v>
       </c>
       <c r="N4" t="n">
-        <v>96.61872007094222</v>
+        <v>97.64944316317062</v>
       </c>
       <c r="O4" t="n">
-        <v>9.829482187325141</v>
+        <v>9.881773280295931</v>
       </c>
       <c r="P4" t="n">
-        <v>386.4225109048471</v>
+        <v>385.8849803504555</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -12854,28 +13186,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05426234649539293</v>
+        <v>0.1380733207376759</v>
       </c>
       <c r="J5" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K5" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001242073806963062</v>
+        <v>0.007891220164805368</v>
       </c>
       <c r="M5" t="n">
-        <v>8.278006891812598</v>
+        <v>8.459766838658004</v>
       </c>
       <c r="N5" t="n">
-        <v>111.0798369710264</v>
+        <v>115.5592393289501</v>
       </c>
       <c r="O5" t="n">
-        <v>10.5394419667754</v>
+        <v>10.7498483398116</v>
       </c>
       <c r="P5" t="n">
-        <v>383.7071056342206</v>
+        <v>382.8246461743339</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -12931,28 +13263,28 @@
         <v>0.0633</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09153276555796065</v>
+        <v>-0.01364362821194171</v>
       </c>
       <c r="J6" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K6" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003560240354613886</v>
+        <v>8.025127026867196e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>8.073980460946018</v>
+        <v>8.173290496549164</v>
       </c>
       <c r="N6" t="n">
-        <v>106.9282726486049</v>
+        <v>109.2456034849405</v>
       </c>
       <c r="O6" t="n">
-        <v>10.34061277916376</v>
+        <v>10.45206216423058</v>
       </c>
       <c r="P6" t="n">
-        <v>388.2691237516699</v>
+        <v>387.4379848616017</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -13008,28 +13340,28 @@
         <v>0.0718</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07152185721403216</v>
+        <v>-0.003170552147259677</v>
       </c>
       <c r="J7" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K7" t="n">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002833771760741399</v>
+        <v>5.674306940539608e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>7.214291464405107</v>
+        <v>7.310109147086906</v>
       </c>
       <c r="N7" t="n">
-        <v>84.27143188801122</v>
+        <v>85.59048318651996</v>
       </c>
       <c r="O7" t="n">
-        <v>9.179947270437408</v>
+        <v>9.251512481022763</v>
       </c>
       <c r="P7" t="n">
-        <v>386.9392620776703</v>
+        <v>386.2182700733819</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -13085,28 +13417,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1471667797979554</v>
+        <v>-0.06181012878012311</v>
       </c>
       <c r="J8" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K8" t="n">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01063016417619211</v>
+        <v>0.001923036607511586</v>
       </c>
       <c r="M8" t="n">
-        <v>7.588482119780993</v>
+        <v>7.721556053510361</v>
       </c>
       <c r="N8" t="n">
-        <v>93.89554395357584</v>
+        <v>96.14160351169754</v>
       </c>
       <c r="O8" t="n">
-        <v>9.68997130819157</v>
+        <v>9.805182482325229</v>
       </c>
       <c r="P8" t="n">
-        <v>393.1594387310515</v>
+        <v>392.2794793079013</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -13143,7 +13475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25701,6 +26033,358 @@
         </is>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>-36.168471383504176,175.48779031958998</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>-36.16834225492356,175.48863519013221</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>-36.16806329125905,175.48945343163703</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>-36.168422776803965,175.48434204140395</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>-36.168617064141145,175.48521775338776</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>-36.16858171138333,175.48609168076882</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>-36.16852145758305,175.48693041773274</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>-36.16848899075013,175.48779444364564</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>-36.16828641577006,175.48861529673715</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>-36.16806551706684,175.48945433262162</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>-36.16845149071675,175.48433776451014</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>-36.1685531063436,175.48522727934494</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>-36.16862326148964,175.4860901738168</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>-36.168588557339724,175.4869384127384</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>-36.168483518662754,175.4877931619462</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>-36.1683770794826,175.48864759683212</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>-36.16812706920883,175.48947924833215</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>-36.16829047811969,175.48436174705967</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>-36.16849901802377,175.48523533531952</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>-36.168551888971585,175.486092762377</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>-36.16851911765226,175.48693013892785</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>-36.1684409168522,175.4877831835461</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>-36.16832602787696,175.4886294090411</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>-36.16805946743543,175.48945188379187</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>-36.16823671780146,175.48436975454888</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>-36.16833415896836,175.4852598895553</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>-36.168464501003115,175.4860959317893</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>-36.16837761298335,175.48691327855732</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>-36.16832231739497,175.48775540467904</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>-36.168267651789165,175.48860861184207</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>-36.1679736026122,175.48941712662406</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>-36.16831597178121,175.48435794982794</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>-36.16851097470313,175.48523355447915</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>-36.1685485331671,175.48609288408633</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>-36.168531877205155,175.48693165924038</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>-36.16844899622855,175.4877850759354</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>-36.16832271188625,175.48862822767768</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>-36.16806106545128,175.48945253065253</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>-36.16833484603581,175.48435513854278</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>-36.1685397184409,175.4852292733549</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>-36.1686016151804,175.4860909588918</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>-36.16855282243916,175.48693415488574</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>-36.1685012707579,175.48779731993065</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>-36.168343147178064,175.48863550800925</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>-36.16807616099363,175.48945864117684</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>-36.1682093456592,175.48437383156997</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-36.16848912251134,175.4869265649815</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>-36.168492925824715,175.48779536533843</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>-36.16830732382477,175.4886227454887</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>-36.16807133841019,175.4894566890431</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0118/nzd0118.xlsx
+++ b/data/nzd0118/nzd0118.xlsx
@@ -12806,7 +12806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12897,35 +12897,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -12984,27 +12989,28 @@
       <c r="P2" t="n">
         <v>383.5291130545632</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.48381913587824 -36.17193329747424, 175.4850474282905 -36.16368676637633)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.4838191358782</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.17193329747424</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.4850474282905</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.16368676637633</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.4844332820844</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.16781003192528</v>
       </c>
     </row>
@@ -13061,27 +13067,28 @@
       <c r="P3" t="n">
         <v>379.44836728429</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.48470909802836 -36.172032081414876, 175.48593732983 -36.163785550854634)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.4847090980284</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.17203208141488</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.48593732983</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.16378555085463</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.4853232139292</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.16790881613476</v>
       </c>
     </row>
@@ -13132,27 +13139,28 @@
       <c r="P4" t="n">
         <v>385.8849803504555</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.4859621343731 -36.17215357089662, 175.48626325699104 -36.163850909306426)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.4859621343731</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.17215357089662</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.486263256991</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.16385090930643</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.4861126956821</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.16800224010152</v>
       </c>
     </row>
@@ -13209,27 +13217,28 @@
       <c r="P5" t="n">
         <v>382.8246461743339</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.4873578266112 -36.17210837331422, 175.48637272377505 -36.16384053779846)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.4873578266112</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.17210837331422</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.486372723775</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.16384053779846</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.4868652751931</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.16797445555633</v>
       </c>
     </row>
@@ -13286,27 +13295,28 @@
       <c r="P6" t="n">
         <v>387.4379848616017</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.48861333216954 -36.171984973464454, 175.48670190873062 -36.16382420297308)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.4886133321695</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.17198497346445</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.4867019087306</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.16382420297308</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.4876576204501</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.16790458821877</v>
       </c>
     </row>
@@ -13363,27 +13373,28 @@
       <c r="P7" t="n">
         <v>386.2182700733819</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.48984999265247 -36.17175193646408, 175.4870067595365 -36.16377108304447)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.4898499926525</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.17175193646408</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.4870067595365</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.16377108304447</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.4884283760945</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.16776150975427</v>
       </c>
     </row>
@@ -13440,27 +13451,28 @@
       <c r="P8" t="n">
         <v>392.2794793079013</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.49084608370242 -36.171503551158345, 175.48765106614061 -36.163610408721574)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.4908460837024</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.17150355115835</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.4876510661406</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.16361040872157</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.4892485749215</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.16755697993996</v>
       </c>
     </row>

--- a/data/nzd0118/nzd0118.xlsx
+++ b/data/nzd0118/nzd0118.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I294"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9689,6 +9689,138 @@
         <v>400.9233333333333</v>
       </c>
       <c r="I294" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>392.32</v>
+      </c>
+      <c r="C295" t="n">
+        <v>388.5666666666667</v>
+      </c>
+      <c r="D295" t="n">
+        <v>393.2795652173913</v>
+      </c>
+      <c r="E295" t="n">
+        <v>387.9154545454546</v>
+      </c>
+      <c r="F295" t="n">
+        <v>386.5554545454546</v>
+      </c>
+      <c r="G295" t="n">
+        <v>387.5423076923077</v>
+      </c>
+      <c r="H295" t="n">
+        <v>389.3766666666667</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>386.84</v>
+      </c>
+      <c r="C296" t="n">
+        <v>386.23</v>
+      </c>
+      <c r="D296" t="n">
+        <v>389.0756521739131</v>
+      </c>
+      <c r="E296" t="n">
+        <v>383.8736363636364</v>
+      </c>
+      <c r="F296" t="n">
+        <v>379.5136363636364</v>
+      </c>
+      <c r="G296" t="n">
+        <v>380.4484615384616</v>
+      </c>
+      <c r="H296" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>411.51</v>
+      </c>
+      <c r="C297" t="n">
+        <v>395.37</v>
+      </c>
+      <c r="D297" t="n">
+        <v>402.1947826086956</v>
+      </c>
+      <c r="E297" t="n">
+        <v>395.2890909090909</v>
+      </c>
+      <c r="F297" t="n">
+        <v>392.829090909091</v>
+      </c>
+      <c r="G297" t="n">
+        <v>396.7807692307693</v>
+      </c>
+      <c r="H297" t="n">
+        <v>403.23</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>400.45</v>
+      </c>
+      <c r="C298" t="n">
+        <v>386.55</v>
+      </c>
+      <c r="D298" t="n">
+        <v>391.8439130434783</v>
+      </c>
+      <c r="E298" t="n">
+        <v>384.0936363636364</v>
+      </c>
+      <c r="F298" t="n">
+        <v>379.9236363636364</v>
+      </c>
+      <c r="G298" t="n">
+        <v>380.8423076923077</v>
+      </c>
+      <c r="H298" t="n">
+        <v>383.68</v>
+      </c>
+      <c r="I298" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9705,7 +9837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12793,6 +12925,46 @@
       </c>
       <c r="B308" t="n">
         <v>0.59</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -12966,28 +13138,28 @@
         <v>0.0418</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2268865839815187</v>
+        <v>0.2526038696402172</v>
       </c>
       <c r="J2" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K2" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01818304778129842</v>
+        <v>0.02271718909864429</v>
       </c>
       <c r="M2" t="n">
-        <v>9.21380980995737</v>
+        <v>9.228097021528832</v>
       </c>
       <c r="N2" t="n">
-        <v>134.2799220027646</v>
+        <v>134.5968504147445</v>
       </c>
       <c r="O2" t="n">
-        <v>11.58792138404316</v>
+        <v>11.60158827121289</v>
       </c>
       <c r="P2" t="n">
-        <v>383.5291130545632</v>
+        <v>383.255275424007</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13044,28 +13216,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1964991862529065</v>
+        <v>0.2107338006268212</v>
       </c>
       <c r="J3" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0196992577071422</v>
+        <v>0.02313008270461159</v>
       </c>
       <c r="M3" t="n">
-        <v>7.415352311061955</v>
+        <v>7.372411265253779</v>
       </c>
       <c r="N3" t="n">
-        <v>91.87429622627882</v>
+        <v>91.01993068353441</v>
       </c>
       <c r="O3" t="n">
-        <v>9.585108044580343</v>
+        <v>9.54043660864294</v>
       </c>
       <c r="P3" t="n">
-        <v>379.44836728429</v>
+        <v>379.2960981343026</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13116,28 +13288,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.110500579034548</v>
+        <v>0.1268108902690335</v>
       </c>
       <c r="J4" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K4" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005868108043737608</v>
+        <v>0.007883294410748531</v>
       </c>
       <c r="M4" t="n">
-        <v>7.591558354082882</v>
+        <v>7.561118394934227</v>
       </c>
       <c r="N4" t="n">
-        <v>97.64944316317062</v>
+        <v>96.96673201254634</v>
       </c>
       <c r="O4" t="n">
-        <v>9.881773280295931</v>
+        <v>9.847168730784821</v>
       </c>
       <c r="P4" t="n">
-        <v>385.8849803504555</v>
+        <v>385.7090638676208</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13194,28 +13366,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1380733207376759</v>
+        <v>0.1423390003268286</v>
       </c>
       <c r="J5" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K5" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007891220164805368</v>
+        <v>0.008604234376332842</v>
       </c>
       <c r="M5" t="n">
-        <v>8.459766838658004</v>
+        <v>8.392164769135425</v>
       </c>
       <c r="N5" t="n">
-        <v>115.5592393289501</v>
+        <v>114.2083901538656</v>
       </c>
       <c r="O5" t="n">
-        <v>10.7498483398116</v>
+        <v>10.68683255945678</v>
       </c>
       <c r="P5" t="n">
-        <v>382.8246461743339</v>
+        <v>382.7793576574264</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13272,28 +13444,28 @@
         <v>0.0633</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01364362821194171</v>
+        <v>-0.02082170080201055</v>
       </c>
       <c r="J6" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K6" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L6" t="n">
-        <v>8.025127026867196e-05</v>
+        <v>0.0001916386633253886</v>
       </c>
       <c r="M6" t="n">
-        <v>8.173290496549164</v>
+        <v>8.130250210838314</v>
       </c>
       <c r="N6" t="n">
-        <v>109.2456034849405</v>
+        <v>108.1493754959401</v>
       </c>
       <c r="O6" t="n">
-        <v>10.45206216423058</v>
+        <v>10.39948919399122</v>
       </c>
       <c r="P6" t="n">
-        <v>387.4379848616017</v>
+        <v>387.5154012089758</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13350,28 +13522,28 @@
         <v>0.0718</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.003170552147259677</v>
+        <v>-0.002390239079419149</v>
       </c>
       <c r="J7" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K7" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L7" t="n">
-        <v>5.674306940539608e-06</v>
+        <v>3.296637468230834e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>7.310109147086906</v>
+        <v>7.28648704381623</v>
       </c>
       <c r="N7" t="n">
-        <v>85.59048318651996</v>
+        <v>84.95897208609506</v>
       </c>
       <c r="O7" t="n">
-        <v>9.251512481022763</v>
+        <v>9.217319137693728</v>
       </c>
       <c r="P7" t="n">
-        <v>386.2182700733819</v>
+        <v>386.210031257838</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13428,28 +13600,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.06181012878012311</v>
+        <v>-0.06458384648344843</v>
       </c>
       <c r="J8" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K8" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001923036607511586</v>
+        <v>0.002148484049258159</v>
       </c>
       <c r="M8" t="n">
-        <v>7.721556053510361</v>
+        <v>7.711428463524141</v>
       </c>
       <c r="N8" t="n">
-        <v>96.14160351169754</v>
+        <v>95.65624065191194</v>
       </c>
       <c r="O8" t="n">
-        <v>9.805182482325229</v>
+        <v>9.780400843110263</v>
       </c>
       <c r="P8" t="n">
-        <v>392.2794793079013</v>
+        <v>392.3083764336735</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -13487,7 +13659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I294"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26397,6 +26569,194 @@
         </is>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>-36.16842393967271,175.48434186819645</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>-36.16855629677921,175.48522680415763</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>-36.16861160036286,175.48609059674612</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>-36.16862940421384,175.4869432796943</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>-36.16856322605071,175.48781183142592</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>-36.168397301697,175.48865480126346</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>-36.16817018709349,175.48949670206048</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>-36.16847295906264,175.4843345668309</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>-36.16857719860496,175.48522369101383</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>-36.16864946182514,175.4860892235748</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>-36.168665652756665,175.48694759875863</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>-36.168625559558045,175.48782643153524</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>-36.16845870744252,175.48867667789838</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>-36.1682230642827,175.48951810629652</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>-36.168252282352896,175.48436743624177</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>-36.168495439965106,175.48523586823924</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>-36.16853130774829,175.48609350882293</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>-36.16856327467341,175.48693540028043</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>-36.168507692413286,175.48779882404338</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>-36.16831733172459,175.48862631092769</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>-36.16805159150009,175.48944869569334</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>-36.168351215649935,175.48435270031834</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>-36.16857433615807,175.48522411735027</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>-36.16862453019517,175.48609012780295</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>-36.168663679714086,175.48694736366775</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>-36.16862193027698,175.48782558146362</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>-36.16845529823192,175.48867546331954</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>-36.16821895510034,175.4895164429333</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0118/nzd0118.xlsx
+++ b/data/nzd0118/nzd0118.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9821,6 +9821,35 @@
         <v>383.68</v>
       </c>
       <c r="I298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="E299" t="n">
+        <v>373.5845454545454</v>
+      </c>
+      <c r="F299" t="n">
+        <v>369.0845454545454</v>
+      </c>
+      <c r="G299" t="n">
+        <v>376.0346153846153</v>
+      </c>
+      <c r="H299" t="n">
+        <v>388.49</v>
+      </c>
+      <c r="I299" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9837,7 +9866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12965,6 +12994,16 @@
       </c>
       <c r="B312" t="n">
         <v>0.24</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -13141,7 +13180,7 @@
         <v>0.2526038696402172</v>
       </c>
       <c r="J2" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K2" t="n">
         <v>262</v>
@@ -13219,7 +13258,7 @@
         <v>0.2107338006268212</v>
       </c>
       <c r="J3" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K3" t="n">
         <v>266</v>
@@ -13288,28 +13327,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1268108902690335</v>
+        <v>0.1169134911097912</v>
       </c>
       <c r="J4" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007883294410748531</v>
+        <v>0.006716434936957727</v>
       </c>
       <c r="M4" t="n">
-        <v>7.561118394934227</v>
+        <v>7.578639491206471</v>
       </c>
       <c r="N4" t="n">
-        <v>96.96673201254634</v>
+        <v>97.22543217190591</v>
       </c>
       <c r="O4" t="n">
-        <v>9.847168730784821</v>
+        <v>9.860295744647111</v>
       </c>
       <c r="P4" t="n">
-        <v>385.7090638676208</v>
+        <v>385.8169433427647</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13366,28 +13405,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1423390003268286</v>
+        <v>0.1328404566371947</v>
       </c>
       <c r="J5" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K5" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008604234376332842</v>
+        <v>0.007518904138865024</v>
       </c>
       <c r="M5" t="n">
-        <v>8.392164769135425</v>
+        <v>8.406976074348446</v>
       </c>
       <c r="N5" t="n">
-        <v>114.2083901538656</v>
+        <v>114.3868710070707</v>
       </c>
       <c r="O5" t="n">
-        <v>10.68683255945678</v>
+        <v>10.69517980246572</v>
       </c>
       <c r="P5" t="n">
-        <v>382.7793576574264</v>
+        <v>382.8813708304675</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13444,28 +13483,28 @@
         <v>0.0633</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02082170080201055</v>
+        <v>-0.03441548846280884</v>
       </c>
       <c r="J6" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K6" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001916386633253886</v>
+        <v>0.0005216911520601331</v>
       </c>
       <c r="M6" t="n">
-        <v>8.130250210838314</v>
+        <v>8.167784783329685</v>
       </c>
       <c r="N6" t="n">
-        <v>108.1493754959401</v>
+        <v>108.919033451184</v>
       </c>
       <c r="O6" t="n">
-        <v>10.39948919399122</v>
+        <v>10.43642819412772</v>
       </c>
       <c r="P6" t="n">
-        <v>387.5154012089758</v>
+        <v>387.6634106355278</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13522,28 +13561,28 @@
         <v>0.0718</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.002390239079419149</v>
+        <v>-0.0100466501706313</v>
       </c>
       <c r="J7" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K7" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L7" t="n">
-        <v>3.296637468230834e-06</v>
+        <v>5.841479648560632e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>7.28648704381623</v>
+        <v>7.297797074518876</v>
       </c>
       <c r="N7" t="n">
-        <v>84.95897208609506</v>
+        <v>85.02005469404699</v>
       </c>
       <c r="O7" t="n">
-        <v>9.217319137693728</v>
+        <v>9.220632011638193</v>
       </c>
       <c r="P7" t="n">
-        <v>386.210031257838</v>
+        <v>386.2924922998735</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13600,28 +13639,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.06458384648344843</v>
+        <v>-0.06638660457220394</v>
       </c>
       <c r="J8" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K8" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002148484049258159</v>
+        <v>0.002289053291231191</v>
       </c>
       <c r="M8" t="n">
-        <v>7.711428463524141</v>
+        <v>7.689064005782495</v>
       </c>
       <c r="N8" t="n">
-        <v>95.65624065191194</v>
+        <v>95.29063755196897</v>
       </c>
       <c r="O8" t="n">
-        <v>9.780400843110263</v>
+        <v>9.761692350815455</v>
       </c>
       <c r="P8" t="n">
-        <v>392.3083764336735</v>
+        <v>392.3273300375361</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -13659,7 +13698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22975,7 +23014,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>-36.16868317370081,175.48694968640532</t>
+          <t>-36.16868317370082,175.48694968640532</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -26757,6 +26796,45 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>-36.16876731438689,175.4860849492597</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>-36.168757929184345,175.48695859364616</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>-36.1687178768766,175.48784805467287</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>-36.16849691457117,175.48869028972902</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>-36.16817777766712,175.48949977465804</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0118/nzd0118.xlsx
+++ b/data/nzd0118/nzd0118.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9850,6 +9850,39 @@
         <v>388.49</v>
       </c>
       <c r="I299" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>389.25</v>
+      </c>
+      <c r="C300" t="n">
+        <v>390.2833333333333</v>
+      </c>
+      <c r="D300" t="n">
+        <v>381.0873913043478</v>
+      </c>
+      <c r="E300" t="n">
+        <v>374.8854545454545</v>
+      </c>
+      <c r="F300" t="n">
+        <v>368.4154545454546</v>
+      </c>
+      <c r="G300" t="n">
+        <v>376.3730769230769</v>
+      </c>
+      <c r="H300" t="n">
+        <v>376.3433333333333</v>
+      </c>
+      <c r="I300" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9866,7 +9899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13004,6 +13037,16 @@
       </c>
       <c r="B313" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -13177,28 +13220,28 @@
         <v>0.0418</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2526038696402172</v>
+        <v>0.2522277422658299</v>
       </c>
       <c r="J2" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K2" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02271718909864429</v>
+        <v>0.0228220146752266</v>
       </c>
       <c r="M2" t="n">
-        <v>9.228097021528832</v>
+        <v>9.194740400530511</v>
       </c>
       <c r="N2" t="n">
-        <v>134.5968504147445</v>
+        <v>134.0859764721407</v>
       </c>
       <c r="O2" t="n">
-        <v>11.60158827121289</v>
+        <v>11.57954992528383</v>
       </c>
       <c r="P2" t="n">
-        <v>383.255275424007</v>
+        <v>383.2593284206392</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13255,28 +13298,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2107338006268212</v>
+        <v>0.2149907746004618</v>
       </c>
       <c r="J3" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K3" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02313008270461159</v>
+        <v>0.02420116559935714</v>
       </c>
       <c r="M3" t="n">
-        <v>7.372411265253779</v>
+        <v>7.364869931689239</v>
       </c>
       <c r="N3" t="n">
-        <v>91.01993068353441</v>
+        <v>90.79423156796375</v>
       </c>
       <c r="O3" t="n">
-        <v>9.54043660864294</v>
+        <v>9.528600714058898</v>
       </c>
       <c r="P3" t="n">
-        <v>379.2960981343026</v>
+        <v>379.2499738311889</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13327,28 +13370,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1169134911097912</v>
+        <v>0.1110535873154183</v>
       </c>
       <c r="J4" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006716434936957727</v>
+        <v>0.006095750922944565</v>
       </c>
       <c r="M4" t="n">
-        <v>7.578639491206471</v>
+        <v>7.578401862838279</v>
       </c>
       <c r="N4" t="n">
-        <v>97.22543217190591</v>
+        <v>97.08368737052349</v>
       </c>
       <c r="O4" t="n">
-        <v>9.860295744647111</v>
+        <v>9.853105468354812</v>
       </c>
       <c r="P4" t="n">
-        <v>385.8169433427647</v>
+        <v>385.8809420222204</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13405,28 +13448,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1328404566371947</v>
+        <v>0.1244600536411305</v>
       </c>
       <c r="J5" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K5" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007518904138865024</v>
+        <v>0.006627742717286722</v>
       </c>
       <c r="M5" t="n">
-        <v>8.406976074348446</v>
+        <v>8.416458303998596</v>
       </c>
       <c r="N5" t="n">
-        <v>114.3868710070707</v>
+        <v>114.4388113631394</v>
       </c>
       <c r="O5" t="n">
-        <v>10.69517980246572</v>
+        <v>10.69760774019778</v>
       </c>
       <c r="P5" t="n">
-        <v>382.8813708304675</v>
+        <v>382.9715565373868</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13483,28 +13526,28 @@
         <v>0.0633</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03441548846280884</v>
+        <v>-0.04826999020598593</v>
       </c>
       <c r="J6" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K6" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005216911520601331</v>
+        <v>0.001021943506530509</v>
       </c>
       <c r="M6" t="n">
-        <v>8.167784783329685</v>
+        <v>8.207967701970531</v>
       </c>
       <c r="N6" t="n">
-        <v>108.919033451184</v>
+        <v>109.7446971943077</v>
       </c>
       <c r="O6" t="n">
-        <v>10.43642819412772</v>
+        <v>10.47591032771414</v>
       </c>
       <c r="P6" t="n">
-        <v>387.6634106355278</v>
+        <v>387.8145558323129</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13561,28 +13604,28 @@
         <v>0.0718</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0100466501706313</v>
+        <v>-0.01731069071689609</v>
       </c>
       <c r="J7" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K7" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L7" t="n">
-        <v>5.841479648560632e-05</v>
+        <v>0.0001739934755122796</v>
       </c>
       <c r="M7" t="n">
-        <v>7.297797074518876</v>
+        <v>7.306886497033878</v>
       </c>
       <c r="N7" t="n">
-        <v>85.02005469404699</v>
+        <v>85.04742575443932</v>
       </c>
       <c r="O7" t="n">
-        <v>9.220632011638193</v>
+        <v>9.222116121283625</v>
       </c>
       <c r="P7" t="n">
-        <v>386.2924922998735</v>
+        <v>386.3708874181943</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13639,28 +13682,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.06638660457220394</v>
+        <v>-0.07818751316464127</v>
       </c>
       <c r="J8" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K8" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002289053291231191</v>
+        <v>0.003172785952189727</v>
       </c>
       <c r="M8" t="n">
-        <v>7.689064005782495</v>
+        <v>7.715580172880325</v>
       </c>
       <c r="N8" t="n">
-        <v>95.29063755196897</v>
+        <v>95.7149285046212</v>
       </c>
       <c r="O8" t="n">
-        <v>9.761692350815455</v>
+        <v>9.783400661560437</v>
       </c>
       <c r="P8" t="n">
-        <v>392.3273300375361</v>
+        <v>392.4516419067098</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -13698,7 +13741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26835,6 +26878,53 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-36.1684514012653,175.48433777783382</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-36.168540940944254,175.48522909127385</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-36.16872140604295,175.48608661427878</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-36.1687462621437,175.48695720349735</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-36.168723799605296,175.4878494419333</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>-36.16849398478098,175.48868924594925</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>-36.16828176280753,175.48954186699814</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0118/nzd0118.xlsx
+++ b/data/nzd0118/nzd0118.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9883,6 +9883,27 @@
         <v>376.3433333333333</v>
       </c>
       <c r="I300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:21+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="n">
+        <v>365.4033333333333</v>
+      </c>
+      <c r="I301" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9899,7 +9920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13047,6 +13068,16 @@
       </c>
       <c r="B314" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
@@ -13223,7 +13254,7 @@
         <v>0.2522277422658299</v>
       </c>
       <c r="J2" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
         <v>263</v>
@@ -13301,7 +13332,7 @@
         <v>0.2149907746004618</v>
       </c>
       <c r="J3" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
         <v>267</v>
@@ -13373,7 +13404,7 @@
         <v>0.1110535873154183</v>
       </c>
       <c r="J4" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
         <v>269</v>
@@ -13451,7 +13482,7 @@
         <v>0.1244600536411305</v>
       </c>
       <c r="J5" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
         <v>275</v>
@@ -13529,7 +13560,7 @@
         <v>-0.04826999020598593</v>
       </c>
       <c r="J6" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
         <v>272</v>
@@ -13607,7 +13638,7 @@
         <v>-0.01731069071689609</v>
       </c>
       <c r="J7" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
         <v>266</v>
@@ -13682,28 +13713,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07818751316464127</v>
+        <v>-0.09870868888438697</v>
       </c>
       <c r="J8" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003172785952189727</v>
+        <v>0.004962481077780301</v>
       </c>
       <c r="M8" t="n">
-        <v>7.715580172880325</v>
+        <v>7.785089373063411</v>
       </c>
       <c r="N8" t="n">
-        <v>95.7149285046212</v>
+        <v>97.80013859140692</v>
       </c>
       <c r="O8" t="n">
-        <v>9.783400661560437</v>
+        <v>9.889395259135258</v>
       </c>
       <c r="P8" t="n">
-        <v>392.4516419067098</v>
+        <v>392.6682347032963</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -13741,7 +13772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26925,6 +26956,29 @@
         </is>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:21+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>-36.16837541790246,175.48957977792847</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0118/nzd0118.xlsx
+++ b/data/nzd0118/nzd0118.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9906,6 +9906,39 @@
       <c r="I301" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>364.14</v>
+      </c>
+      <c r="C302" t="n">
+        <v>362.79</v>
+      </c>
+      <c r="D302" t="n">
+        <v>361.2517391304348</v>
+      </c>
+      <c r="E302" t="n">
+        <v>371.14</v>
+      </c>
+      <c r="F302" t="n">
+        <v>368.4</v>
+      </c>
+      <c r="G302" t="n">
+        <v>370.5461538461539</v>
+      </c>
+      <c r="H302" t="n">
+        <v>380.38</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9920,7 +9953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13078,6 +13111,16 @@
       </c>
       <c r="B315" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -13251,28 +13294,28 @@
         <v>0.0418</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2522277422658299</v>
+        <v>0.2324646431580439</v>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K2" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0228220146752266</v>
+        <v>0.01925456887268662</v>
       </c>
       <c r="M2" t="n">
-        <v>9.194740400530511</v>
+        <v>9.249581603285867</v>
       </c>
       <c r="N2" t="n">
-        <v>134.0859764721407</v>
+        <v>136.0381162111219</v>
       </c>
       <c r="O2" t="n">
-        <v>11.57954992528383</v>
+        <v>11.66353789427213</v>
       </c>
       <c r="P2" t="n">
-        <v>383.2593284206392</v>
+        <v>383.4737728487439</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13329,28 +13372,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2149907746004618</v>
+        <v>0.198126517430498</v>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K3" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02420116559935714</v>
+        <v>0.02039127117084305</v>
       </c>
       <c r="M3" t="n">
-        <v>7.364869931689239</v>
+        <v>7.422357284253884</v>
       </c>
       <c r="N3" t="n">
-        <v>90.79423156796375</v>
+        <v>92.24269255181183</v>
       </c>
       <c r="O3" t="n">
-        <v>9.528600714058898</v>
+        <v>9.604305938057774</v>
       </c>
       <c r="P3" t="n">
-        <v>379.2499738311889</v>
+        <v>379.4339566462404</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13401,28 +13444,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.1110535873154183</v>
+        <v>0.09012509849450903</v>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006095750922944565</v>
+        <v>0.003941433652930981</v>
       </c>
       <c r="M4" t="n">
-        <v>7.578401862838279</v>
+        <v>7.649666810476706</v>
       </c>
       <c r="N4" t="n">
-        <v>97.08368737052349</v>
+        <v>99.49282866374486</v>
       </c>
       <c r="O4" t="n">
-        <v>9.853105468354812</v>
+        <v>9.974609198547322</v>
       </c>
       <c r="P4" t="n">
-        <v>385.8809420222204</v>
+        <v>386.1110856251988</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13479,28 +13522,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1244600536411305</v>
+        <v>0.1133594299097345</v>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K5" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006627742717286722</v>
+        <v>0.005506618029803345</v>
       </c>
       <c r="M5" t="n">
-        <v>8.416458303998596</v>
+        <v>8.438380798667424</v>
       </c>
       <c r="N5" t="n">
-        <v>114.4388113631394</v>
+        <v>114.83528387213</v>
       </c>
       <c r="O5" t="n">
-        <v>10.69760774019778</v>
+        <v>10.71612261371295</v>
       </c>
       <c r="P5" t="n">
-        <v>382.9715565373868</v>
+        <v>383.0918488337583</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13557,28 +13600,28 @@
         <v>0.0633</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04826999020598593</v>
+        <v>-0.06203236545515356</v>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K6" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001021943506530509</v>
+        <v>0.001681185836512999</v>
       </c>
       <c r="M6" t="n">
-        <v>8.207967701970531</v>
+        <v>8.249482472085825</v>
       </c>
       <c r="N6" t="n">
-        <v>109.7446971943077</v>
+        <v>110.538189138363</v>
       </c>
       <c r="O6" t="n">
-        <v>10.47591032771414</v>
+        <v>10.51371433596914</v>
       </c>
       <c r="P6" t="n">
-        <v>387.8145558323129</v>
+        <v>387.9657200900335</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13635,28 +13678,28 @@
         <v>0.0718</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01731069071689609</v>
+        <v>-0.02891937821148996</v>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K7" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001739934755122796</v>
+        <v>0.000484153549605737</v>
       </c>
       <c r="M7" t="n">
-        <v>7.306886497033878</v>
+        <v>7.338244273923363</v>
       </c>
       <c r="N7" t="n">
-        <v>85.04742575443932</v>
+        <v>85.60456795075424</v>
       </c>
       <c r="O7" t="n">
-        <v>9.222116121283625</v>
+        <v>9.252273663849024</v>
       </c>
       <c r="P7" t="n">
-        <v>386.3708874181943</v>
+        <v>386.4970581191552</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13713,28 +13756,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09870868888438697</v>
+        <v>-0.1066755071943602</v>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K8" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004962481077780301</v>
+        <v>0.005818392820052365</v>
       </c>
       <c r="M8" t="n">
-        <v>7.785089373063411</v>
+        <v>7.792566095360839</v>
       </c>
       <c r="N8" t="n">
-        <v>97.80013859140692</v>
+        <v>97.78375726345254</v>
       </c>
       <c r="O8" t="n">
-        <v>9.889395259135258</v>
+        <v>9.888566997469985</v>
       </c>
       <c r="P8" t="n">
-        <v>392.6682347032963</v>
+        <v>392.7527287684275</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -13772,7 +13815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26979,6 +27022,53 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-36.16867601382998,175.48430432204535</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-36.16878687283525,175.48519246179995</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-36.168900050741826,175.4860801351314</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-36.16877985278467,175.48696120588383</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-36.16872393640745,175.48784947397598</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>-36.168544423780745,175.48870721557876</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>-36.16824720572832,175.4895278785591</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0118/nzd0118.xlsx
+++ b/data/nzd0118/nzd0118.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9939,6 +9939,72 @@
       <c r="I302" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>384.53</v>
+      </c>
+      <c r="C303" t="n">
+        <v>372.2766666666667</v>
+      </c>
+      <c r="D303" t="n">
+        <v>378.1291304347826</v>
+      </c>
+      <c r="E303" t="n">
+        <v>377.6927272727273</v>
+      </c>
+      <c r="F303" t="n">
+        <v>378.0127272727273</v>
+      </c>
+      <c r="G303" t="n">
+        <v>377.6430769230769</v>
+      </c>
+      <c r="H303" t="n">
+        <v>395.2666666666667</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>360.57</v>
+      </c>
+      <c r="C304" t="n">
+        <v>358.1766666666667</v>
+      </c>
+      <c r="D304" t="n">
+        <v>359.5113043478261</v>
+      </c>
+      <c r="E304" t="n">
+        <v>350.4018181818182</v>
+      </c>
+      <c r="F304" t="n">
+        <v>355.2218181818182</v>
+      </c>
+      <c r="G304" t="n">
+        <v>371.0046153846154</v>
+      </c>
+      <c r="H304" t="n">
+        <v>393.4966666666666</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9953,7 +10019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B316"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13121,6 +13187,26 @@
       </c>
       <c r="B316" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13294,28 +13380,28 @@
         <v>0.0418</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2324646431580439</v>
+        <v>0.2067784625294052</v>
       </c>
       <c r="J2" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K2" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01925456887268662</v>
+        <v>0.01517763440017394</v>
       </c>
       <c r="M2" t="n">
-        <v>9.249581603285867</v>
+        <v>9.302257501774676</v>
       </c>
       <c r="N2" t="n">
-        <v>136.0381162111219</v>
+        <v>138.2032460699739</v>
       </c>
       <c r="O2" t="n">
-        <v>11.66353789427213</v>
+        <v>11.75598766884237</v>
       </c>
       <c r="P2" t="n">
-        <v>383.4737728487439</v>
+        <v>383.753268602667</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13372,28 +13458,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>0.198126517430498</v>
+        <v>0.1689976304094065</v>
       </c>
       <c r="J3" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K3" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02039127117084305</v>
+        <v>0.01466095488527963</v>
       </c>
       <c r="M3" t="n">
-        <v>7.422357284253884</v>
+        <v>7.517321848354709</v>
       </c>
       <c r="N3" t="n">
-        <v>92.24269255181183</v>
+        <v>94.63450435890569</v>
       </c>
       <c r="O3" t="n">
-        <v>9.604305938057774</v>
+        <v>9.728026745383962</v>
       </c>
       <c r="P3" t="n">
-        <v>379.4339566462404</v>
+        <v>379.7525683674373</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13444,28 +13530,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.09012509849450903</v>
+        <v>0.06074216417618577</v>
       </c>
       <c r="J4" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K4" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003941433652930981</v>
+        <v>0.001760872622189047</v>
       </c>
       <c r="M4" t="n">
-        <v>7.649666810476706</v>
+        <v>7.736709200031328</v>
       </c>
       <c r="N4" t="n">
-        <v>99.49282866374486</v>
+        <v>102.1669640994682</v>
       </c>
       <c r="O4" t="n">
-        <v>9.974609198547322</v>
+        <v>10.10776751312911</v>
       </c>
       <c r="P4" t="n">
-        <v>386.1110856251988</v>
+        <v>386.4350570670143</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13522,28 +13608,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1133594299097345</v>
+        <v>0.08144120548631015</v>
       </c>
       <c r="J5" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K5" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005506618029803345</v>
+        <v>0.002777113594012892</v>
       </c>
       <c r="M5" t="n">
-        <v>8.438380798667424</v>
+        <v>8.534857426467644</v>
       </c>
       <c r="N5" t="n">
-        <v>114.83528387213</v>
+        <v>118.7482250022848</v>
       </c>
       <c r="O5" t="n">
-        <v>10.71612261371295</v>
+        <v>10.89716591606665</v>
       </c>
       <c r="P5" t="n">
-        <v>383.0918488337583</v>
+        <v>383.4386858791209</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13600,28 +13686,28 @@
         <v>0.0633</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06203236545515356</v>
+        <v>-0.09145968494684098</v>
       </c>
       <c r="J6" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K6" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001681185836512999</v>
+        <v>0.003581810949002229</v>
       </c>
       <c r="M6" t="n">
-        <v>8.249482472085825</v>
+        <v>8.343596007385505</v>
       </c>
       <c r="N6" t="n">
-        <v>110.538189138363</v>
+        <v>113.4505907928034</v>
       </c>
       <c r="O6" t="n">
-        <v>10.51371433596914</v>
+        <v>10.65131873491745</v>
       </c>
       <c r="P6" t="n">
-        <v>387.9657200900335</v>
+        <v>388.2898117217617</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13678,28 +13764,28 @@
         <v>0.0718</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02891937821148996</v>
+        <v>-0.04588288435518314</v>
       </c>
       <c r="J7" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K7" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000484153549605737</v>
+        <v>0.001221449549187459</v>
       </c>
       <c r="M7" t="n">
-        <v>7.338244273923363</v>
+        <v>7.369536455676851</v>
       </c>
       <c r="N7" t="n">
-        <v>85.60456795075424</v>
+        <v>85.99886837544784</v>
       </c>
       <c r="O7" t="n">
-        <v>9.252273663849024</v>
+        <v>9.273557482188151</v>
       </c>
       <c r="P7" t="n">
-        <v>386.4970581191552</v>
+        <v>386.6819141680561</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13756,28 +13842,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1066755071943602</v>
+        <v>-0.09963434229519143</v>
       </c>
       <c r="J8" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K8" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005818392820052365</v>
+        <v>0.005157198609734182</v>
       </c>
       <c r="M8" t="n">
-        <v>7.792566095360839</v>
+        <v>7.765163158523472</v>
       </c>
       <c r="N8" t="n">
-        <v>97.78375726345254</v>
+        <v>97.16796155666276</v>
       </c>
       <c r="O8" t="n">
-        <v>9.888566997469985</v>
+        <v>9.85738106987159</v>
       </c>
       <c r="P8" t="n">
-        <v>392.7527287684275</v>
+        <v>392.6778798480607</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -13815,7 +13901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27069,6 +27155,100 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-36.1684936223455,175.48433148906332</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-36.168702013214606,175.4852051009433</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-36.16874804885876,175.48608564798832</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-36.168721085468825,175.4869542036532</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-36.168638845462674,175.487829543439</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-36.168482991409014,175.4886853294036</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>-36.168119763994405,175.48947629124982</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-36.16870794799312,175.48429956547514</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-36.168828139776075,175.48518631542012</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-36.16891572551979,175.48607956663292</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-36.168965840568426,175.48698336674747</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>-36.16884058840581,175.4878767970227</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>-36.16854045524706,175.4887058017298</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>-36.16813491660703,175.48948242488606</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0118/nzd0118.xlsx
+++ b/data/nzd0118/nzd0118.xlsx
@@ -13371,13 +13371,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0396</v>
+        <v>0.0412</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0418</v>
+        <v>0.0479</v>
       </c>
       <c r="I2" t="n">
         <v>0.2067784625294052</v>
@@ -13449,13 +13449,13 @@
         <v>0.8330458002633052</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0547</v>
+        <v>0.055</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0677</v>
+        <v>0.0732</v>
       </c>
       <c r="I3" t="n">
         <v>0.1690292646672233</v>
@@ -13526,9 +13526,15 @@
       <c r="E4" t="n">
         <v>0.6660916005266103</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.08989999999999999</v>
+      </c>
       <c r="I4" t="n">
         <v>0.06074389189677574</v>
       </c>
@@ -13599,13 +13605,13 @@
         <v>0.500175675723635</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0492</v>
+        <v>0.0558</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0579</v>
+        <v>0.073</v>
       </c>
       <c r="I5" t="n">
         <v>0.08140809554874376</v>
@@ -13677,13 +13683,13 @@
         <v>0.3332214759867019</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0529</v>
+        <v>0.0449</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0633</v>
+        <v>0.0607</v>
       </c>
       <c r="I6" t="n">
         <v>-0.09150374113614652</v>
@@ -13755,13 +13761,13 @@
         <v>0.1669541997361035</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0591</v>
+        <v>0.0625</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0718</v>
+        <v>0.0832</v>
       </c>
       <c r="I7" t="n">
         <v>-0.04588153841127546</v>
@@ -13833,13 +13839,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0532</v>
+        <v>0.0618</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06610000000000001</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>-0.099616789255376</v>
